--- a/Data/ticket_data.xlsx
+++ b/Data/ticket_data.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D6"/>
+  <dimension ref="A1:D10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -458,46 +458,38 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>bheru</t>
+          <t>ayush</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>bheru@paytm</t>
+          <t>aj@pytm</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>c62bbd77005c0abc</t>
-        </is>
-      </c>
-      <c r="D2" t="inlineStr">
-        <is>
-          <t>Yes</t>
-        </is>
-      </c>
+          <t>ea731e88696ba970</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr"/>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>shubham</t>
+          <t>bheru</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>shubham@paypal</t>
+          <t>bheru@paypal</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>bb0d2115b586a1c5</t>
-        </is>
-      </c>
-      <c r="D3" t="inlineStr">
-        <is>
-          <t>Yes</t>
-        </is>
-      </c>
+          <t>8c6d0751770bfc06</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr"/>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
@@ -507,47 +499,127 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>dinesh@razorpay</t>
+          <t>din@gpay</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>a6fe557d618c222f</t>
-        </is>
-      </c>
-      <c r="D4" t="inlineStr">
-        <is>
-          <t>Yes</t>
-        </is>
-      </c>
+          <t>aa424ef629984b38</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr"/>
     </row>
     <row r="5">
-      <c r="A5" t="inlineStr"/>
-      <c r="B5" t="inlineStr"/>
-      <c r="C5" t="inlineStr"/>
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>shubham</t>
+        </is>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>shubh@gpay</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>c6e8fcbd208e2924</t>
+        </is>
+      </c>
       <c r="D5" t="inlineStr"/>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>ayush</t>
+          <t>satyen</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>ayush@paytm</t>
+          <t>asat@razorpay</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>333d1cd23619697a</t>
-        </is>
-      </c>
-      <c r="D6" t="inlineStr">
+          <t>6f80e78819a17332</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr"/>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>a1</t>
+        </is>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>a@payed</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>da9026abc665025c</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr"/>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>b2</t>
+        </is>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>b@payed</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>cfaea30e3b402902</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
         <is>
           <t>Yes</t>
         </is>
       </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>c3</t>
+        </is>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>c@payed</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>4d795f2d3f2296c2</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr"/>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>d4</t>
+        </is>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>d@payed</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>7cd82693b24af5f3</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/Data/ticket_data.xlsx
+++ b/Data/ticket_data.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="32">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="31" uniqueCount="21">
   <si>
     <t>Name</t>
   </si>
@@ -22,10 +22,7 @@
     <t>UPI ID</t>
   </si>
   <si>
-    <t>Ticket Code</t>
-  </si>
-  <si>
-    <t>Scanned</t>
+    <t/>
   </si>
   <si>
     <t>ayush</t>
@@ -34,82 +31,52 @@
     <t>aj@pytm</t>
   </si>
   <si>
-    <t>ea731e88696ba970</t>
-  </si>
-  <si>
-    <t/>
-  </si>
-  <si>
     <t>bheru</t>
   </si>
   <si>
     <t>bheru@paypal</t>
   </si>
   <si>
-    <t>8c6d0751770bfc06</t>
-  </si>
-  <si>
     <t>dinesh</t>
   </si>
   <si>
     <t>din@gpay</t>
   </si>
   <si>
-    <t>aa424ef629984b38</t>
-  </si>
-  <si>
     <t>shubham</t>
   </si>
   <si>
     <t>shubh@gpay</t>
   </si>
   <si>
-    <t>c6e8fcbd208e2924</t>
-  </si>
-  <si>
     <t>satyen</t>
   </si>
   <si>
     <t>asat@razorpay</t>
   </si>
   <si>
-    <t>6f80e78819a17332</t>
-  </si>
-  <si>
     <t>a1</t>
   </si>
   <si>
     <t>a@payed</t>
   </si>
   <si>
-    <t>da9026abc665025c</t>
-  </si>
-  <si>
     <t>b2</t>
   </si>
   <si>
     <t>b@payed</t>
   </si>
   <si>
-    <t>cfaea30e3b402902</t>
-  </si>
-  <si>
     <t>c3</t>
   </si>
   <si>
     <t>c@payed</t>
   </si>
   <si>
-    <t>4d795f2d3f2296c2</t>
-  </si>
-  <si>
     <t>d4</t>
   </si>
   <si>
     <t>d@payed</t>
-  </si>
-  <si>
-    <t>7cd82693b24af5f3</t>
   </si>
 </sst>
 </file>
@@ -127,7 +94,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF000000"/>
       <name val="Calibri"/>
       <family val="2"/>
     </font>
@@ -167,9 +134,12 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="6">
     <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0"/>
     <xf xfId="0" numFmtId="0" borderId="1" applyBorder="1" fontId="1" applyFont="1" fillId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf xfId="0" numFmtId="0" borderId="1" applyBorder="1" fontId="1" applyFont="1" fillId="0" quotePrefix="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0" applyAlignment="1">
@@ -489,10 +459,10 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" style="4" width="13.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="2" max="2" style="4" width="13.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="3" max="3" style="4" width="17.862142857142857" customWidth="1" bestFit="1"/>
-    <col min="4" max="4" style="4" width="13.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="1" max="1" style="5" width="13.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="2" max="2" style="5" width="13.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="3" max="3" style="5" width="17.862142857142857" customWidth="1" bestFit="1"/>
+    <col min="4" max="4" style="5" width="13.576428571428572" customWidth="1" bestFit="1"/>
   </cols>
   <sheetData>
     <row x14ac:dyDescent="0.25" r="1" customHeight="1" ht="20.25">
@@ -502,122 +472,120 @@
       <c r="B1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="D1" s="1" t="s">
+      <c r="C1" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="2" customHeight="1" ht="18.75">
+      <c r="A2" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="2" customHeight="1" ht="18.75">
-      <c r="A2" s="2" t="s">
+      <c r="B2" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="B2" s="2" t="s">
+      <c r="C2" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="D2" s="3"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="3" customHeight="1" ht="18.75">
+      <c r="A3" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="C2" s="2" t="s">
+      <c r="B3" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="D2" s="3" t="s">
+      <c r="C3" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="D3" s="3"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="4" customHeight="1" ht="18.75">
+      <c r="A4" s="3" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="3" customHeight="1" ht="18.75">
-      <c r="A3" s="2" t="s">
+      <c r="B4" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="B3" s="2" t="s">
+      <c r="C4" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="D4" s="3"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="5" customHeight="1" ht="18.75">
+      <c r="A5" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="C3" s="2" t="s">
+      <c r="B5" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="D3" s="2"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="4" customHeight="1" ht="18.75">
-      <c r="A4" s="2" t="s">
+      <c r="C5" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="D5" s="3"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="6" customHeight="1" ht="18.75">
+      <c r="A6" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="B4" s="2" t="s">
+      <c r="B6" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="C4" s="2" t="s">
+      <c r="C6" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="D6" s="3"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="7" customHeight="1" ht="18.75">
+      <c r="A7" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="D4" s="2"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="5" customHeight="1" ht="18.75">
-      <c r="A5" s="2" t="s">
+      <c r="B7" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="B5" s="2" t="s">
+      <c r="C7" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="D7" s="3"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="8" customHeight="1" ht="18.75">
+      <c r="A8" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="C5" s="2" t="s">
+      <c r="B8" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="D5" s="2"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="6" customHeight="1" ht="18.75">
-      <c r="A6" s="2" t="s">
+      <c r="C8" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="D8" s="3"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="9" customHeight="1" ht="18.75">
+      <c r="A9" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="B6" s="2" t="s">
+      <c r="B9" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="C6" s="2" t="s">
+      <c r="C9" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="D9" s="3"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="10" customHeight="1" ht="18.75">
+      <c r="A10" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="D6" s="2"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="7" customHeight="1" ht="18.75">
-      <c r="A7" s="2" t="s">
+      <c r="B10" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="B7" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="C7" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="D7" s="2"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="8" customHeight="1" ht="18.75">
-      <c r="A8" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="B8" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="C8" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="D8" s="2"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="9" customHeight="1" ht="18.75">
-      <c r="A9" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="B9" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="C9" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="D9" s="2"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="10" customHeight="1" ht="18.75">
-      <c r="A10" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="B10" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="C10" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="D10" s="2"/>
+      <c r="C10" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="D10" s="3"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
